--- a/MatrizPromedios.xlsx
+++ b/MatrizPromedios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/eduardo_reynava_uanl_edu_mx/Documents/Desktop/6.-TSO/1_Temas/PIA/Codigo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{432BD990-FA92-44CF-A908-12B52D630C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{432BD990-FA92-44CF-A908-12B52D630C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49ADE9C2-E8F5-41E3-AF8C-9A00FD9E8F8B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{F3A7FAAC-832A-407B-B199-B1A5BB9FEF03}"/>
   </bookViews>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,102 +394,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D5CF0C-D01B-459D-8576-DB9D29912373}">
-  <dimension ref="C1:AF24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="4.77734375" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" customWidth="1"/>
-    <col min="20" max="34" width="4.77734375" customWidth="1"/>
+    <col min="1" max="14" width="4.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="28" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
       <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="N1" s="1">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="D2">
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L2">
-        <v>14</v>
-      </c>
-      <c r="M2">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:Y2" si="0">ROUND((C$15/C2),0)</f>
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:AB2" si="0">ROUND((F$15/F2),0)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
@@ -501,919 +506,899 @@
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AF2">
-        <f>MIN(R2:AB12)</f>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D3" s="1">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="1">ROUND((B$15/B3),0)</f>
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="2">ROUND((D$15/D3),0)</f>
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R12" si="3">ROUND((E$15/E3),0)</f>
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S12" si="4">ROUND((F$15/F3),0)</f>
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
+      <c r="T3">
+        <f t="shared" ref="T3:T12" si="5">ROUND((G$15/G3),0)</f>
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U12" si="6">ROUND((H$15/H3),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V12" si="7">ROUND((I$15/I3),0)</f>
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W12" si="8">ROUND((J$15/J3),0)</f>
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X12" si="9">ROUND((K$15/K3),0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y11" si="10">ROUND((L$15/L3),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>14</v>
-      </c>
-      <c r="N3">
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
         <v>18</v>
       </c>
-      <c r="O3">
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P12" si="11">ROUND((C$15/C4),0)</f>
         <v>8</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R12" si="1">ROUND((E$15/E3),0)</f>
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T12" si="2">ROUND((G$15/G3),0)</f>
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U12" si="3">ROUND((H$15/H3),0)</f>
-        <v>4</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V12" si="4">ROUND((I$15/I3),0)</f>
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W12" si="5">ROUND((J$15/J3),0)</f>
-        <v>6</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X12" si="6">ROUND((K$15/K3),0)</f>
-        <v>6</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y12" si="7">ROUND((L$15/L3),0)</f>
-        <v>6</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z12" si="8">ROUND((M$15/M3),0)</f>
-        <v>4</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA12" si="9">ROUND((N$15/N3),0)</f>
-        <v>6</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB12" si="10">ROUND((O$15/O3),0)</f>
-        <v>12</v>
-      </c>
-      <c r="AF3">
-        <f>MAX(R2:AB12)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>11</v>
-      </c>
-      <c r="O4">
-        <v>18</v>
-      </c>
       <c r="R4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S3:S12" si="11">ROUND((F$15/F4),0)</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Y4">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="Z4">
+      <c r="W4">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AA4">
+      <c r="X4">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="AB4">
+      <c r="Y4">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D5" s="1">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
       <c r="E5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="R5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S5">
+      <c r="P5">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="T5">
+      <c r="Q5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="V5">
+      <c r="S5">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="T5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="X5">
+      <c r="U5">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Y5">
+      <c r="V5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Z5">
+      <c r="W5">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AA5">
+      <c r="X5">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="AB5">
+      <c r="Y5">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>11</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="R6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="P6">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="T6">
+      <c r="Q6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="U6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="X6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Y6">
+      <c r="V6">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="Z6">
+      <c r="W6">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AA6">
+      <c r="X6">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="AB6">
+      <c r="Y6">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
       </c>
       <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
       <c r="I7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>14</v>
-      </c>
-      <c r="R7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S7">
+      <c r="P7">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="T7">
+      <c r="Q7">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U7">
+      <c r="R7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V7">
+      <c r="S7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X7">
+      <c r="U7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="Y7">
+      <c r="V7">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="Z7">
+      <c r="W7">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AA7">
+      <c r="X7">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AB7">
+      <c r="Y7">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>9</v>
-      </c>
-      <c r="N8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="R8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S8">
+      <c r="P8">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="T8">
+      <c r="Q8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="U8">
+      <c r="R8">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="V8">
+      <c r="S8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="T8">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
       <c r="Y8">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AB8">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
         <v>15</v>
       </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>17</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>12</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
       <c r="O9">
-        <v>15</v>
-      </c>
-      <c r="R9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="S9">
+      <c r="P9">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="T9">
+      <c r="Q9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U9">
+      <c r="R9">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="V9">
+      <c r="S9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="W9">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="X9">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AA9">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AB9">
+      <c r="Y9">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D10" s="1">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
       <c r="E10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O10">
-        <v>15</v>
-      </c>
-      <c r="R10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="S10">
+      <c r="P10">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="T10">
+      <c r="Q10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U10">
+      <c r="R10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V10">
+      <c r="S10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="T10">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="X10">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AB10">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="S11">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="V11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="T11">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="X11">
+      <c r="U11">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="Y11">
+      <c r="V11">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Z11">
+      <c r="W11">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AB11">
+      <c r="Y11">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D12" s="1">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
       <c r="E12">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
         <v>18</v>
       </c>
-      <c r="I12">
-        <v>17</v>
-      </c>
-      <c r="J12">
+      <c r="K12">
         <v>20</v>
       </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
       <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>18</v>
-      </c>
-      <c r="N12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="R12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S12">
+      <c r="P12">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="T12">
+      <c r="Q12">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="U12">
+      <c r="R12">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V12">
+      <c r="S12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="W12">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="Z12">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AA12">
+      <c r="X12">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K14" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L14" s="1">
-        <v>7</v>
-      </c>
-      <c r="M14" s="1">
-        <v>8</v>
-      </c>
-      <c r="N14" s="1">
-        <v>9</v>
-      </c>
-      <c r="O14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
       <c r="E15">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F15">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H15">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I15">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J15">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L15">
-        <v>87</v>
-      </c>
-      <c r="M15">
-        <v>52</v>
-      </c>
-      <c r="N15">
-        <v>100</v>
-      </c>
-      <c r="O15">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="1"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
